--- a/data/outputs/数学期刊(下)_altmetric/57Bulletin of the Malaysian Mathematical Sciences Society.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/57Bulletin of the Malaysian Mathematical Sciences Society.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE110"/>
+  <dimension ref="A1:CF110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1039,6 +1044,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1284,6 +1292,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1533,6 +1544,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1778,6 +1792,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2035,6 +2052,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2292,6 +2312,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2537,6 +2560,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2784,6 +2810,9 @@
         <v>0</v>
       </c>
       <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3027,6 +3056,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3276,6 +3308,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3531,6 +3566,9 @@
         <v>0</v>
       </c>
       <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3774,6 +3812,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4021,6 +4062,9 @@
         <v>0</v>
       </c>
       <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4264,6 +4308,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4521,6 +4568,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4770,6 +4820,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5023,6 +5076,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5268,6 +5324,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5525,6 +5584,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5774,6 +5836,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6023,6 +6088,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6268,6 +6336,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6527,6 +6598,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6774,6 +6848,9 @@
         <v>0</v>
       </c>
       <c r="CE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7017,6 +7094,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7266,6 +7346,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7515,6 +7598,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7768,6 +7854,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8013,6 +8102,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8268,6 +8360,9 @@
         <v>0</v>
       </c>
       <c r="CE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8511,6 +8606,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8758,6 +8856,9 @@
         <v>0</v>
       </c>
       <c r="CE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9001,6 +9102,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9250,6 +9354,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9497,6 +9604,9 @@
         <v>0</v>
       </c>
       <c r="CE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9740,6 +9850,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9993,6 +10106,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10238,6 +10354,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10487,6 +10606,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10740,6 +10862,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10997,6 +11122,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11242,6 +11370,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11495,6 +11626,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11744,6 +11878,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11993,6 +12130,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12250,6 +12390,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12501,6 +12644,9 @@
         <v>0</v>
       </c>
       <c r="CE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12744,6 +12890,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12993,6 +13142,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13242,6 +13394,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13491,6 +13646,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13744,6 +13902,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14001,6 +14162,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14250,6 +14414,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14499,6 +14666,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14740,6 +14910,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14985,6 +15158,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15234,6 +15410,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15481,6 +15660,9 @@
         <v>0</v>
       </c>
       <c r="CE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15724,6 +15906,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15965,6 +16150,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16214,6 +16402,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16459,6 +16650,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16716,6 +16910,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16965,6 +17162,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17214,6 +17414,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17463,6 +17666,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17712,6 +17918,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17961,6 +18170,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18212,6 +18424,9 @@
         <v>0</v>
       </c>
       <c r="CE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18455,6 +18670,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18704,6 +18922,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18953,6 +19174,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19202,6 +19426,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19451,6 +19678,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19708,6 +19938,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19957,6 +20190,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20206,6 +20442,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20455,6 +20694,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20704,6 +20946,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20953,6 +21198,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21200,6 +21448,9 @@
         <v>0</v>
       </c>
       <c r="CE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21443,6 +21694,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21680,6 +21934,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21929,6 +22186,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22174,6 +22434,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22419,6 +22682,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22668,6 +22934,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22917,6 +23186,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23168,6 +23440,9 @@
         <v>0</v>
       </c>
       <c r="CE91" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23411,6 +23686,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23660,6 +23938,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23913,6 +24194,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24162,6 +24446,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24411,6 +24698,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24660,6 +24950,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24909,6 +25202,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -25166,6 +25462,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25407,6 +25706,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25656,6 +25958,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25905,6 +26210,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -26154,6 +26462,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26411,6 +26722,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26656,6 +26970,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26903,6 +27220,9 @@
         <v>0</v>
       </c>
       <c r="CE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27146,6 +27466,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -27383,6 +27706,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27640,6 +27966,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -27885,6 +28214,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
